--- a/Notebooks/Test_Target.xlsx
+++ b/Notebooks/Test_Target.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slb001-my.sharepoint.com/personal/lvenkataramanan_slb_com/Documents/Work/SPWLA/Workshop/Python Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvenkataramanan\OneDrive - Schlumberger\Work\SPWLA\Workshop\Python Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="10_ncr:100000_{38FFB3DB-78B0-4B01-9B8E-03A47C98D235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A27107B-BF22-4FD3-BD76-00E4C204F808}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50ACEFE-9997-424E-B6B2-F0F9CB0ADDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15990" xr2:uid="{C454F43F-BA43-4805-8FEF-0662A2489CA9}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD4000"/>
+      <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,8 +885,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/Notebooks/Test_Target.xlsx
+++ b/Notebooks/Test_Target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvenkataramanan\OneDrive - Schlumberger\Work\SPWLA\Workshop\Python Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BANAMZ\OneDrive - LR\SPWLA\2021 - ML and AI Workshop\Github\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50ACEFE-9997-424E-B6B2-F0F9CB0ADDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D50ACEFE-9997-424E-B6B2-F0F9CB0ADDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{885E8E39-9ECD-40A2-A0CB-4D05F0991F7B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15990" xr2:uid="{C454F43F-BA43-4805-8FEF-0662A2489CA9}"/>
+    <workbookView xWindow="10155" yWindow="7335" windowWidth="22785" windowHeight="11970" xr2:uid="{C454F43F-BA43-4805-8FEF-0662A2489CA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="Q102" sqref="Q102"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
